--- a/code/df_full_left.xlsx
+++ b/code/df_full_left.xlsx
@@ -13,7 +13,1057 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1820">
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
   <si>
     <t>IV-doors</t>
   </si>
@@ -4545,214 +5595,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1401</v>
+        <v>1751</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1402</v>
+        <v>1752</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1403</v>
+        <v>1753</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1404</v>
+        <v>1754</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1405</v>
+        <v>1755</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1406</v>
+        <v>1756</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1407</v>
+        <v>1757</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1408</v>
+        <v>1758</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1409</v>
+        <v>1759</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1410</v>
+        <v>1760</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1411</v>
+        <v>1761</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1412</v>
+        <v>1762</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1413</v>
+        <v>1763</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1414</v>
+        <v>1764</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1415</v>
+        <v>1765</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1416</v>
+        <v>1766</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1417</v>
+        <v>1767</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1418</v>
+        <v>1768</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1419</v>
+        <v>1769</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1420</v>
+        <v>1770</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1421</v>
+        <v>1771</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1422</v>
+        <v>1772</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1423</v>
+        <v>1773</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1424</v>
+        <v>1774</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1425</v>
+        <v>1775</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1426</v>
+        <v>1776</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1427</v>
+        <v>1777</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1428</v>
+        <v>1778</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1429</v>
+        <v>1779</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1430</v>
+        <v>1780</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1431</v>
+        <v>1781</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1432</v>
+        <v>1782</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>1433</v>
+        <v>1783</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>1434</v>
+        <v>1784</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>1435</v>
+        <v>1785</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>1436</v>
+        <v>1786</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>1437</v>
+        <v>1787</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>1438</v>
+        <v>1788</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>1439</v>
+        <v>1789</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>1440</v>
+        <v>1790</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>1441</v>
+        <v>1791</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>1442</v>
+        <v>1792</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>1443</v>
+        <v>1793</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>1444</v>
+        <v>1794</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>1445</v>
+        <v>1795</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>1446</v>
+        <v>1796</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>1447</v>
+        <v>1797</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>1448</v>
+        <v>1798</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>1449</v>
+        <v>1799</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>1451</v>
+        <v>1801</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>1452</v>
+        <v>1802</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>1453</v>
+        <v>1803</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>1454</v>
+        <v>1804</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>1455</v>
+        <v>1805</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>1456</v>
+        <v>1806</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>1457</v>
+        <v>1807</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>1458</v>
+        <v>1808</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>1459</v>
+        <v>1809</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>1460</v>
+        <v>1810</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>1461</v>
+        <v>1811</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>1462</v>
+        <v>1812</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>1463</v>
+        <v>1813</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>1464</v>
+        <v>1814</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>1465</v>
+        <v>1815</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>1466</v>
+        <v>1816</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>1467</v>
+        <v>1817</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>1468</v>
+        <v>1818</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>1469</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_left.xlsx
+++ b/code/df_full_left.xlsx
@@ -13,7 +13,427 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="2100">
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
   <si>
     <t>IV-doors</t>
   </si>
@@ -6015,214 +6435,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1890</v>
+        <v>2030</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1891</v>
+        <v>2031</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1892</v>
+        <v>2032</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1893</v>
+        <v>2033</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1894</v>
+        <v>2034</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1895</v>
+        <v>2035</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1896</v>
+        <v>2036</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1897</v>
+        <v>2037</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1898</v>
+        <v>2038</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1899</v>
+        <v>2039</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1900</v>
+        <v>2040</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1901</v>
+        <v>2041</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1902</v>
+        <v>2042</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1903</v>
+        <v>2043</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1904</v>
+        <v>2044</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1905</v>
+        <v>2045</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1906</v>
+        <v>2046</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1907</v>
+        <v>2047</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1908</v>
+        <v>2048</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1909</v>
+        <v>2049</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1910</v>
+        <v>2050</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1911</v>
+        <v>2051</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1912</v>
+        <v>2052</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1913</v>
+        <v>2053</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1914</v>
+        <v>2054</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1915</v>
+        <v>2055</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1916</v>
+        <v>2056</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1917</v>
+        <v>2057</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1918</v>
+        <v>2058</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1919</v>
+        <v>2059</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1920</v>
+        <v>2060</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1921</v>
+        <v>2061</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1922</v>
+        <v>2062</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>1923</v>
+        <v>2063</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>1924</v>
+        <v>2064</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>1925</v>
+        <v>2065</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>1926</v>
+        <v>2066</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>1927</v>
+        <v>2067</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>1928</v>
+        <v>2068</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>1929</v>
+        <v>2069</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>1930</v>
+        <v>2070</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>1931</v>
+        <v>2071</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>1932</v>
+        <v>2072</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>1933</v>
+        <v>2073</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>1934</v>
+        <v>2074</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>1935</v>
+        <v>2075</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>1936</v>
+        <v>2076</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>1937</v>
+        <v>2077</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>1938</v>
+        <v>2078</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>1939</v>
+        <v>2079</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>1940</v>
+        <v>2080</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>1941</v>
+        <v>2081</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>1942</v>
+        <v>2082</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>1943</v>
+        <v>2083</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>1944</v>
+        <v>2084</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>1945</v>
+        <v>2085</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>1946</v>
+        <v>2086</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>1947</v>
+        <v>2087</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>1948</v>
+        <v>2088</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>1949</v>
+        <v>2089</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>1950</v>
+        <v>2090</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>1951</v>
+        <v>2091</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>1952</v>
+        <v>2092</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>1953</v>
+        <v>2093</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>1954</v>
+        <v>2094</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>1955</v>
+        <v>2095</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>1956</v>
+        <v>2096</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>1957</v>
+        <v>2097</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>1958</v>
+        <v>2098</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>1959</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_left.xlsx
+++ b/code/df_full_left.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5917" uniqueCount="5917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6130" uniqueCount="6130">
   <si>
     <t>IV-doors</t>
   </si>
@@ -10096,6 +10096,645 @@
   </si>
   <si>
     <t>Subs</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
   </si>
   <si>
     <t>Subs</t>
@@ -17887,217 +18526,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5846</v>
+        <v>6059</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5847</v>
+        <v>6060</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5848</v>
+        <v>6061</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5849</v>
+        <v>6062</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>5850</v>
+        <v>6063</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5851</v>
+        <v>6064</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5852</v>
+        <v>6065</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5853</v>
+        <v>6066</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5854</v>
+        <v>6067</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>5855</v>
+        <v>6068</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>5856</v>
+        <v>6069</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>5857</v>
+        <v>6070</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>5858</v>
+        <v>6071</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>5859</v>
+        <v>6072</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>5860</v>
+        <v>6073</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>5861</v>
+        <v>6074</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>5862</v>
+        <v>6075</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>5863</v>
+        <v>6076</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>5864</v>
+        <v>6077</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>5865</v>
+        <v>6078</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>5866</v>
+        <v>6079</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>5867</v>
+        <v>6080</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>5868</v>
+        <v>6081</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>5869</v>
+        <v>6082</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>5870</v>
+        <v>6083</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>5871</v>
+        <v>6084</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>5872</v>
+        <v>6085</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>5873</v>
+        <v>6086</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>5874</v>
+        <v>6087</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>5875</v>
+        <v>6088</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>5876</v>
+        <v>6089</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>5877</v>
+        <v>6090</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>5878</v>
+        <v>6091</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>5879</v>
+        <v>6092</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>5880</v>
+        <v>6093</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>5881</v>
+        <v>6094</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5882</v>
+        <v>6095</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5883</v>
+        <v>6096</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>5884</v>
+        <v>6097</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>5885</v>
+        <v>6098</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>5886</v>
+        <v>6099</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>5887</v>
+        <v>6100</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>5888</v>
+        <v>6101</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>5889</v>
+        <v>6102</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>5890</v>
+        <v>6103</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>5891</v>
+        <v>6104</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>5892</v>
+        <v>6105</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>5893</v>
+        <v>6106</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>5894</v>
+        <v>6107</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>5895</v>
+        <v>6108</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>5896</v>
+        <v>6109</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>5897</v>
+        <v>6110</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>5898</v>
+        <v>6111</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>5899</v>
+        <v>6112</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>5900</v>
+        <v>6113</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>5901</v>
+        <v>6114</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>5902</v>
+        <v>6115</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>5903</v>
+        <v>6116</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>5904</v>
+        <v>6117</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>5905</v>
+        <v>6118</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>5906</v>
+        <v>6119</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>5907</v>
+        <v>6120</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>5908</v>
+        <v>6121</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>5909</v>
+        <v>6122</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>5910</v>
+        <v>6123</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>5911</v>
+        <v>6124</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>5912</v>
+        <v>6125</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>5913</v>
+        <v>6126</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>5914</v>
+        <v>6127</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>5915</v>
+        <v>6128</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>5916</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_left.xlsx
+++ b/code/df_full_left.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="810">
   <si>
     <t>Subs</t>
   </si>
@@ -118,6 +118,432 @@
   </si>
   <si>
     <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
   </si>
   <si>
     <t>Vermis-IX-sharedreward</t>
@@ -2471,217 +2897,217 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0" t="s">
-        <v>597</v>
+        <v>739</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>598</v>
+        <v>740</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>599</v>
+        <v>741</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>600</v>
+        <v>742</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>601</v>
+        <v>743</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>602</v>
+        <v>744</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>603</v>
+        <v>745</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>604</v>
+        <v>746</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>605</v>
+        <v>747</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>606</v>
+        <v>748</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>607</v>
+        <v>749</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>608</v>
+        <v>750</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>609</v>
+        <v>751</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>610</v>
+        <v>752</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>611</v>
+        <v>753</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>612</v>
+        <v>754</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>613</v>
+        <v>755</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>614</v>
+        <v>756</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>615</v>
+        <v>757</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>616</v>
+        <v>758</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>617</v>
+        <v>759</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>618</v>
+        <v>760</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>619</v>
+        <v>761</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>620</v>
+        <v>762</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>621</v>
+        <v>763</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>622</v>
+        <v>764</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>623</v>
+        <v>765</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>624</v>
+        <v>766</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>625</v>
+        <v>767</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>626</v>
+        <v>768</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>627</v>
+        <v>769</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>628</v>
+        <v>770</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>629</v>
+        <v>771</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>630</v>
+        <v>772</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>631</v>
+        <v>773</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>632</v>
+        <v>774</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>633</v>
+        <v>775</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>634</v>
+        <v>776</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>635</v>
+        <v>777</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>636</v>
+        <v>778</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>637</v>
+        <v>779</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>638</v>
+        <v>780</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>639</v>
+        <v>781</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>640</v>
+        <v>782</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>641</v>
+        <v>783</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>642</v>
+        <v>784</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>643</v>
+        <v>785</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>644</v>
+        <v>786</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>645</v>
+        <v>787</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>646</v>
+        <v>788</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>647</v>
+        <v>789</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>648</v>
+        <v>790</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>649</v>
+        <v>791</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>650</v>
+        <v>792</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>651</v>
+        <v>793</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>652</v>
+        <v>794</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>653</v>
+        <v>795</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>654</v>
+        <v>796</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>655</v>
+        <v>797</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>656</v>
+        <v>798</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>657</v>
+        <v>799</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>659</v>
+        <v>801</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>660</v>
+        <v>802</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>661</v>
+        <v>803</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>662</v>
+        <v>804</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>663</v>
+        <v>805</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>664</v>
+        <v>806</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>665</v>
+        <v>807</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>666</v>
+        <v>808</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>667</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">

--- a/code/df_full_left.xlsx
+++ b/code/df_full_left.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="881">
   <si>
     <t>Subs</t>
   </si>
@@ -118,6 +118,219 @@
   </si>
   <si>
     <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
   </si>
   <si>
     <t>Vermis-IX-sharedreward</t>
@@ -2897,217 +3110,217 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0" t="s">
-        <v>739</v>
+        <v>810</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>740</v>
+        <v>811</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>741</v>
+        <v>812</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>742</v>
+        <v>813</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>743</v>
+        <v>814</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>744</v>
+        <v>815</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>745</v>
+        <v>816</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>746</v>
+        <v>817</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>747</v>
+        <v>818</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>748</v>
+        <v>819</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>749</v>
+        <v>820</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>750</v>
+        <v>821</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>751</v>
+        <v>822</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>752</v>
+        <v>823</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>753</v>
+        <v>824</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>754</v>
+        <v>825</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>755</v>
+        <v>826</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>756</v>
+        <v>827</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>757</v>
+        <v>828</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>758</v>
+        <v>829</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>759</v>
+        <v>830</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>760</v>
+        <v>831</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>761</v>
+        <v>832</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>762</v>
+        <v>833</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>763</v>
+        <v>834</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>765</v>
+        <v>836</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>766</v>
+        <v>837</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>767</v>
+        <v>838</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>768</v>
+        <v>839</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>769</v>
+        <v>840</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>770</v>
+        <v>841</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>771</v>
+        <v>842</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>772</v>
+        <v>843</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>774</v>
+        <v>845</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>775</v>
+        <v>846</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>776</v>
+        <v>847</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>777</v>
+        <v>848</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>778</v>
+        <v>849</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>779</v>
+        <v>850</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>780</v>
+        <v>851</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>781</v>
+        <v>852</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>782</v>
+        <v>853</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>783</v>
+        <v>854</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>784</v>
+        <v>855</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>785</v>
+        <v>856</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>787</v>
+        <v>858</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>788</v>
+        <v>859</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>789</v>
+        <v>860</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>790</v>
+        <v>861</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>791</v>
+        <v>862</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>792</v>
+        <v>863</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>793</v>
+        <v>864</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>794</v>
+        <v>865</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>795</v>
+        <v>866</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>796</v>
+        <v>867</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>797</v>
+        <v>868</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>798</v>
+        <v>869</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>799</v>
+        <v>870</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>800</v>
+        <v>871</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>801</v>
+        <v>872</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>802</v>
+        <v>873</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>803</v>
+        <v>874</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>804</v>
+        <v>875</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>805</v>
+        <v>876</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>806</v>
+        <v>877</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>807</v>
+        <v>878</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>808</v>
+        <v>879</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>809</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">

--- a/code/df_full_left.xlsx
+++ b/code/df_full_left.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1236">
   <si>
     <t>Subs</t>
   </si>
@@ -118,6 +118,1071 @@
   </si>
   <si>
     <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
   </si>
   <si>
     <t>Vermis-IX-sharedreward</t>
@@ -3110,217 +4175,217 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0" t="s">
-        <v>810</v>
+        <v>1165</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>811</v>
+        <v>1166</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>812</v>
+        <v>1167</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>813</v>
+        <v>1168</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>814</v>
+        <v>1169</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>815</v>
+        <v>1170</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>816</v>
+        <v>1171</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>817</v>
+        <v>1172</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>818</v>
+        <v>1173</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>819</v>
+        <v>1174</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>820</v>
+        <v>1175</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>821</v>
+        <v>1176</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>822</v>
+        <v>1177</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>823</v>
+        <v>1178</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>824</v>
+        <v>1179</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>825</v>
+        <v>1180</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>826</v>
+        <v>1181</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>827</v>
+        <v>1182</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>828</v>
+        <v>1183</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>829</v>
+        <v>1184</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>830</v>
+        <v>1185</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>831</v>
+        <v>1186</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>832</v>
+        <v>1187</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>833</v>
+        <v>1188</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>834</v>
+        <v>1189</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>835</v>
+        <v>1190</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>836</v>
+        <v>1191</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>837</v>
+        <v>1192</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>838</v>
+        <v>1193</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>839</v>
+        <v>1194</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>840</v>
+        <v>1195</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>841</v>
+        <v>1196</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>842</v>
+        <v>1197</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>843</v>
+        <v>1198</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>844</v>
+        <v>1199</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>845</v>
+        <v>1200</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>846</v>
+        <v>1201</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>847</v>
+        <v>1202</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>848</v>
+        <v>1203</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>849</v>
+        <v>1204</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>850</v>
+        <v>1205</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>851</v>
+        <v>1206</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>852</v>
+        <v>1207</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>853</v>
+        <v>1208</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>854</v>
+        <v>1209</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>855</v>
+        <v>1210</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>856</v>
+        <v>1211</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>857</v>
+        <v>1212</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>858</v>
+        <v>1213</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>860</v>
+        <v>1215</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>861</v>
+        <v>1216</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>862</v>
+        <v>1217</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>863</v>
+        <v>1218</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>864</v>
+        <v>1219</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>865</v>
+        <v>1220</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>866</v>
+        <v>1221</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>867</v>
+        <v>1222</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>868</v>
+        <v>1223</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>869</v>
+        <v>1224</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>870</v>
+        <v>1225</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>871</v>
+        <v>1226</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>872</v>
+        <v>1227</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>873</v>
+        <v>1228</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>874</v>
+        <v>1229</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>875</v>
+        <v>1230</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>876</v>
+        <v>1231</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>877</v>
+        <v>1232</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>878</v>
+        <v>1233</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>879</v>
+        <v>1234</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>880</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">

--- a/code/df_full_left.xlsx
+++ b/code/df_full_left.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
   <si>
     <t>Subs</t>
   </si>
@@ -118,6 +118,219 @@
   </si>
   <si>
     <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
   </si>
   <si>
     <t>Vermis-IX-sharedreward</t>
@@ -4175,217 +4388,217 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0" t="s">
-        <v>1165</v>
+        <v>1236</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1166</v>
+        <v>1237</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1167</v>
+        <v>1238</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1168</v>
+        <v>1239</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1169</v>
+        <v>1240</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1170</v>
+        <v>1241</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1171</v>
+        <v>1242</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1172</v>
+        <v>1243</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1173</v>
+        <v>1244</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1174</v>
+        <v>1245</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1175</v>
+        <v>1246</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1176</v>
+        <v>1247</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1177</v>
+        <v>1248</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1178</v>
+        <v>1249</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1179</v>
+        <v>1250</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1180</v>
+        <v>1251</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1181</v>
+        <v>1252</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1182</v>
+        <v>1253</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1183</v>
+        <v>1254</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1184</v>
+        <v>1255</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1185</v>
+        <v>1256</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1186</v>
+        <v>1257</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1187</v>
+        <v>1258</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1188</v>
+        <v>1259</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1189</v>
+        <v>1260</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1190</v>
+        <v>1261</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1191</v>
+        <v>1262</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1192</v>
+        <v>1263</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1193</v>
+        <v>1264</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1194</v>
+        <v>1265</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1195</v>
+        <v>1266</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1196</v>
+        <v>1267</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1197</v>
+        <v>1268</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>1198</v>
+        <v>1269</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>1199</v>
+        <v>1270</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>1200</v>
+        <v>1271</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>1201</v>
+        <v>1272</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>1202</v>
+        <v>1273</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>1203</v>
+        <v>1274</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>1204</v>
+        <v>1275</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>1205</v>
+        <v>1276</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>1206</v>
+        <v>1277</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>1207</v>
+        <v>1278</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>1208</v>
+        <v>1279</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>1209</v>
+        <v>1280</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>1210</v>
+        <v>1281</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>1211</v>
+        <v>1282</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>1212</v>
+        <v>1283</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>1213</v>
+        <v>1284</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>1214</v>
+        <v>1285</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>1215</v>
+        <v>1286</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>1216</v>
+        <v>1287</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>1217</v>
+        <v>1288</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>1218</v>
+        <v>1289</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>1219</v>
+        <v>1290</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>1220</v>
+        <v>1291</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>1221</v>
+        <v>1292</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>1222</v>
+        <v>1293</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>1223</v>
+        <v>1294</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>1224</v>
+        <v>1295</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>1225</v>
+        <v>1296</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>1226</v>
+        <v>1297</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>1227</v>
+        <v>1298</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>1228</v>
+        <v>1299</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>1229</v>
+        <v>1300</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>1230</v>
+        <v>1301</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>1231</v>
+        <v>1302</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>1232</v>
+        <v>1303</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>1233</v>
+        <v>1304</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>1234</v>
+        <v>1305</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>1235</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
